--- a/doc/Iceberg設計.xlsx
+++ b/doc/Iceberg設計.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13089200\develop\関連システム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1EBEE2-C50F-409A-BC94-8F551BDD6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC2984-61F9-457C-9504-7673B4C3A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA680798-E069-4AB6-B98B-AEFE0DA6FFF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{BA680798-E069-4AB6-B98B-AEFE0DA6FFF5}"/>
   </bookViews>
   <sheets>
     <sheet name="商品MDPro属性" sheetId="1" r:id="rId1"/>
+    <sheet name="商品CzPOS属性" sheetId="2" r:id="rId2"/>
+    <sheet name="商品属性SKU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="649">
   <si>
     <t>name</t>
   </si>
@@ -1387,10 +1389,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3286,6 +3284,186 @@
   </si>
   <si>
     <t>社内ユーザーは8桁、取引先は6桁のIDを使用する。</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>20251105</t>
+  </si>
+  <si>
+    <t>99999999</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>19930622</t>
+  </si>
+  <si>
+    <t>20251031010541</t>
+  </si>
+  <si>
+    <t>21003640000004</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>8601</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2100364</t>
+  </si>
+  <si>
+    <t>21003640000</t>
+  </si>
+  <si>
+    <t>4549509810360</t>
+  </si>
+  <si>
+    <t>0861221</t>
+  </si>
+  <si>
+    <t>CAINZ ｼﾞｭｳｿｳﾌﾟﾗｽｱﾙｶﾘﾃﾞﾝｶｲ</t>
+  </si>
+  <si>
+    <t>ＣＡＩＮＺ　重曹＋アルカリ電解水スプレー　詰替</t>
+  </si>
+  <si>
+    <t>ｼﾞｭｳｿｳ ﾂﾒｶｴ</t>
+  </si>
+  <si>
+    <t>763462</t>
+  </si>
+  <si>
+    <t>49509</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>99991231</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>20211004</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>アルカリ電解水に重曹を配合したクリーナー　詰替</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3346,12 +3524,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3687,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E8935-EB8B-4FA7-91EC-2FF4899FF616}">
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3698,14 +3879,15 @@
     <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="45.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3716,22 +3898,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3744,17 +3932,26 @@
       <c r="D2" t="s">
         <v>442</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H2">
+      <c r="E2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3767,17 +3964,26 @@
       <c r="D3" t="s">
         <v>442</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H3">
+      <c r="E3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3790,17 +3996,26 @@
       <c r="D4" t="s">
         <v>442</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4">
+      <c r="E4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3813,14 +4028,23 @@
       <c r="D5" t="s">
         <v>442</v>
       </c>
-      <c r="H5">
+      <c r="E5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3833,17 +4057,26 @@
       <c r="D6" t="s">
         <v>442</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H6">
+      <c r="E6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3856,17 +4089,26 @@
       <c r="D7" t="s">
         <v>442</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H7">
+      <c r="E7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3879,17 +4121,26 @@
       <c r="D8" t="s">
         <v>442</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H8">
+      <c r="E8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3902,17 +4153,26 @@
       <c r="D9" t="s">
         <v>442</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H9">
+      <c r="E9" t="s">
+        <v>645</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3925,17 +4185,26 @@
       <c r="D10" t="s">
         <v>442</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H10">
+      <c r="E10" t="s">
+        <v>645</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3948,17 +4217,26 @@
       <c r="D11" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H11">
+      <c r="E11" t="s">
+        <v>645</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I11">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3971,17 +4249,26 @@
       <c r="D12" t="s">
         <v>442</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H12">
+      <c r="E12" t="s">
+        <v>645</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3994,14 +4281,23 @@
       <c r="D13" t="s">
         <v>442</v>
       </c>
-      <c r="H13">
+      <c r="E13" t="s">
+        <v>645</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4014,17 +4310,26 @@
       <c r="D14" t="s">
         <v>442</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H14">
+      <c r="E14" t="s">
+        <v>645</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I14">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4037,14 +4342,23 @@
       <c r="D15" t="s">
         <v>442</v>
       </c>
-      <c r="H15">
+      <c r="E15" t="s">
+        <v>645</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4057,17 +4371,26 @@
       <c r="D16" t="s">
         <v>442</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H16">
+      <c r="E16" t="s">
+        <v>645</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4080,17 +4403,26 @@
       <c r="D17" t="s">
         <v>442</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H17">
+      <c r="E17" t="s">
+        <v>645</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4103,17 +4435,26 @@
       <c r="D18" t="s">
         <v>442</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H18">
+      <c r="E18" t="s">
+        <v>645</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I18">
         <v>150</v>
       </c>
-      <c r="I18" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4126,17 +4467,26 @@
       <c r="D19" t="s">
         <v>442</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H19">
+      <c r="E19" t="s">
+        <v>645</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I19">
         <v>150</v>
       </c>
-      <c r="I19" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4149,17 +4499,26 @@
       <c r="D20" t="s">
         <v>442</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H20">
+      <c r="E20" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I20">
         <v>75</v>
       </c>
-      <c r="I20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4172,14 +4531,23 @@
       <c r="D21" t="s">
         <v>442</v>
       </c>
-      <c r="H21">
+      <c r="E21" t="s">
+        <v>645</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G21" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21">
         <v>75</v>
       </c>
-      <c r="I21" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4192,17 +4560,26 @@
       <c r="D22" t="s">
         <v>442</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H22">
+      <c r="E22" t="s">
+        <v>645</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22">
         <v>150</v>
       </c>
-      <c r="I22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4215,17 +4592,26 @@
       <c r="D23" t="s">
         <v>442</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H23">
+      <c r="E23" t="s">
+        <v>645</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I23">
         <v>42</v>
       </c>
-      <c r="I23" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4238,14 +4624,20 @@
       <c r="D24" t="s">
         <v>442</v>
       </c>
-      <c r="H24">
+      <c r="E24" t="s">
+        <v>645</v>
+      </c>
+      <c r="G24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24">
         <v>20</v>
       </c>
-      <c r="I24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4258,17 +4650,26 @@
       <c r="D25" t="s">
         <v>442</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H25">
+      <c r="E25" t="s">
+        <v>645</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4281,14 +4682,23 @@
       <c r="D26" t="s">
         <v>442</v>
       </c>
-      <c r="H26">
+      <c r="E26" t="s">
+        <v>645</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26">
         <v>6</v>
       </c>
-      <c r="I26" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4301,17 +4711,26 @@
       <c r="D27" t="s">
         <v>442</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H27">
+      <c r="E27" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I27">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4324,17 +4743,26 @@
       <c r="D28" t="s">
         <v>442</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H28">
+      <c r="E28" t="s">
+        <v>645</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4347,17 +4775,26 @@
       <c r="D29" t="s">
         <v>442</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H29">
+      <c r="E29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4370,17 +4807,26 @@
       <c r="D30" t="s">
         <v>442</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H30">
+      <c r="E30" t="s">
+        <v>645</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4393,14 +4839,23 @@
       <c r="D31" t="s">
         <v>442</v>
       </c>
-      <c r="H31">
+      <c r="E31" t="s">
+        <v>645</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="I31" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4413,17 +4868,26 @@
       <c r="D32" t="s">
         <v>442</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H32">
+      <c r="E32" t="s">
+        <v>645</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4436,17 +4900,26 @@
       <c r="D33" t="s">
         <v>442</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H33">
+      <c r="E33" t="s">
+        <v>645</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4459,17 +4932,26 @@
       <c r="D34" t="s">
         <v>444</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H34">
+      <c r="E34" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I34">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4482,17 +4964,26 @@
       <c r="D35" t="s">
         <v>444</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H35">
+      <c r="E35" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I35">
         <v>9</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4505,17 +4996,26 @@
       <c r="D36" t="s">
         <v>442</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H36">
+      <c r="E36" t="s">
+        <v>645</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G36" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I36">
         <v>3</v>
       </c>
-      <c r="I36" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4528,17 +5028,23 @@
       <c r="D37" t="s">
         <v>442</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H37">
+      <c r="E37" t="s">
+        <v>645</v>
+      </c>
+      <c r="G37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4551,17 +5057,23 @@
       <c r="D38" t="s">
         <v>442</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H38">
+      <c r="E38" t="s">
+        <v>645</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4574,17 +5086,26 @@
       <c r="D39" t="s">
         <v>442</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H39">
+      <c r="E39" t="s">
+        <v>645</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4597,17 +5118,26 @@
       <c r="D40" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H40">
+      <c r="E40" t="s">
+        <v>645</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G40" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4620,17 +5150,26 @@
       <c r="D41" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H41">
+      <c r="E41" t="s">
+        <v>645</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G41" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4643,17 +5182,26 @@
       <c r="D42" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H42">
+      <c r="E42" t="s">
+        <v>645</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G42" t="s">
+        <v>264</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I42">
         <v>3</v>
       </c>
-      <c r="I42" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4666,17 +5214,26 @@
       <c r="D43" t="s">
         <v>442</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H43">
+      <c r="E43" t="s">
+        <v>645</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G43" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4689,17 +5246,26 @@
       <c r="D44" t="s">
         <v>442</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H44">
+      <c r="E44" t="s">
+        <v>645</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4712,17 +5278,26 @@
       <c r="D45" t="s">
         <v>442</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H45">
+      <c r="E45" t="s">
+        <v>645</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J45" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4735,17 +5310,26 @@
       <c r="D46" t="s">
         <v>442</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H46">
+      <c r="E46" t="s">
+        <v>645</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4758,17 +5342,26 @@
       <c r="D47" t="s">
         <v>442</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H47">
+      <c r="E47" t="s">
+        <v>645</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G47" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4781,17 +5374,26 @@
       <c r="D48" t="s">
         <v>442</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H48">
+      <c r="E48" t="s">
+        <v>645</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4804,17 +5406,26 @@
       <c r="D49" t="s">
         <v>448</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H49">
+      <c r="E49" t="s">
+        <v>443</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I49">
         <v>8</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4827,14 +5438,20 @@
       <c r="D50" t="s">
         <v>442</v>
       </c>
-      <c r="H50">
+      <c r="E50" t="s">
+        <v>645</v>
+      </c>
+      <c r="G50" t="s">
+        <v>272</v>
+      </c>
+      <c r="I50">
         <v>8</v>
       </c>
-      <c r="I50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4847,14 +5464,23 @@
       <c r="D51" t="s">
         <v>442</v>
       </c>
-      <c r="H51">
+      <c r="E51" t="s">
+        <v>645</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51">
         <v>8</v>
       </c>
-      <c r="I51" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4867,17 +5493,26 @@
       <c r="D52" t="s">
         <v>442</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H52">
+      <c r="E52" t="s">
+        <v>645</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4890,17 +5525,23 @@
       <c r="D53" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H53">
+      <c r="E53" t="s">
+        <v>645</v>
+      </c>
+      <c r="G53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I53">
         <v>3</v>
       </c>
-      <c r="I53" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4913,17 +5554,26 @@
       <c r="D54" t="s">
         <v>442</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H54">
+      <c r="E54" t="s">
+        <v>645</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G54" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4936,17 +5586,23 @@
       <c r="D55" t="s">
         <v>442</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H55">
+      <c r="E55" t="s">
+        <v>645</v>
+      </c>
+      <c r="G55" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I55">
         <v>8</v>
       </c>
-      <c r="I55" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4959,17 +5615,23 @@
       <c r="D56" t="s">
         <v>442</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H56">
+      <c r="E56" t="s">
+        <v>645</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I56">
         <v>8</v>
       </c>
-      <c r="I56" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4982,17 +5644,26 @@
       <c r="D57" t="s">
         <v>442</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H57">
+      <c r="E57" t="s">
+        <v>645</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G57" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5005,17 +5676,23 @@
       <c r="D58" t="s">
         <v>442</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H58">
+      <c r="E58" t="s">
+        <v>645</v>
+      </c>
+      <c r="G58" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I58">
         <v>8</v>
       </c>
-      <c r="I58" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5028,17 +5705,23 @@
       <c r="D59" t="s">
         <v>442</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H59">
+      <c r="E59" t="s">
+        <v>645</v>
+      </c>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I59">
         <v>8</v>
       </c>
-      <c r="I59" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5051,17 +5734,26 @@
       <c r="D60" t="s">
         <v>442</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H60">
+      <c r="E60" t="s">
+        <v>645</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G60" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5074,14 +5766,20 @@
       <c r="D61" t="s">
         <v>442</v>
       </c>
-      <c r="H61">
+      <c r="E61" t="s">
+        <v>645</v>
+      </c>
+      <c r="G61" t="s">
+        <v>283</v>
+      </c>
+      <c r="I61">
         <v>8</v>
       </c>
-      <c r="I61" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5094,14 +5792,20 @@
       <c r="D62" t="s">
         <v>442</v>
       </c>
-      <c r="H62">
+      <c r="E62" t="s">
+        <v>645</v>
+      </c>
+      <c r="G62" t="s">
+        <v>284</v>
+      </c>
+      <c r="I62">
         <v>8</v>
       </c>
-      <c r="I62" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5114,17 +5818,26 @@
       <c r="D63" t="s">
         <v>442</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H63">
+      <c r="E63" t="s">
+        <v>645</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G63" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="I63" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5137,17 +5850,26 @@
       <c r="D64" t="s">
         <v>442</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H64">
+      <c r="E64" t="s">
+        <v>645</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G64" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="I64" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5160,17 +5882,26 @@
       <c r="D65" t="s">
         <v>442</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H65">
+      <c r="E65" t="s">
+        <v>645</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G65" t="s">
+        <v>287</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5183,17 +5914,26 @@
       <c r="D66" t="s">
         <v>442</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H66">
+      <c r="E66" t="s">
+        <v>645</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5206,17 +5946,26 @@
       <c r="D67" t="s">
         <v>442</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H67">
+      <c r="E67" t="s">
+        <v>645</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5229,17 +5978,26 @@
       <c r="D68" t="s">
         <v>442</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H68">
+      <c r="E68" t="s">
+        <v>645</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G68" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J68" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5252,17 +6010,26 @@
       <c r="D69" t="s">
         <v>442</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H69">
+      <c r="E69" t="s">
+        <v>645</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I69">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J69" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5275,17 +6042,26 @@
       <c r="D70" t="s">
         <v>442</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H70">
+      <c r="E70" t="s">
+        <v>645</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G70" t="s">
+        <v>292</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5298,17 +6074,26 @@
       <c r="D71" t="s">
         <v>442</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H71">
+      <c r="E71" t="s">
+        <v>645</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J71" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5321,17 +6106,26 @@
       <c r="D72" t="s">
         <v>442</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H72">
+      <c r="E72" t="s">
+        <v>645</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G72" t="s">
+        <v>294</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J72" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5344,17 +6138,26 @@
       <c r="D73" t="s">
         <v>442</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H73">
+      <c r="E73" t="s">
+        <v>645</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J73" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5367,17 +6170,26 @@
       <c r="D74" t="s">
         <v>442</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H74">
+      <c r="E74" t="s">
+        <v>645</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G74" t="s">
+        <v>296</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J74" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5390,17 +6202,26 @@
       <c r="D75" t="s">
         <v>442</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H75">
+      <c r="E75" t="s">
+        <v>645</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G75" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J75" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5413,17 +6234,26 @@
       <c r="D76" t="s">
         <v>445</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H76">
+      <c r="E76" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" t="s">
+        <v>298</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5436,17 +6266,26 @@
       <c r="D77" t="s">
         <v>448</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H77">
+      <c r="E77" t="s">
+        <v>443</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G77" t="s">
+        <v>299</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I77">
         <v>8</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5459,17 +6298,26 @@
       <c r="D78" t="s">
         <v>442</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H78">
+      <c r="E78" t="s">
+        <v>645</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G78" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I78">
         <v>3</v>
       </c>
-      <c r="I78" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5482,17 +6330,26 @@
       <c r="D79" t="s">
         <v>448</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H79">
+      <c r="E79" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G79" t="s">
+        <v>301</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I79">
         <v>8</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5505,17 +6362,26 @@
       <c r="D80" t="s">
         <v>442</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H80">
+      <c r="E80" t="s">
+        <v>645</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G80" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I80">
         <v>3</v>
       </c>
-      <c r="I80" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J80" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5528,17 +6394,26 @@
       <c r="D81" t="s">
         <v>442</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H81">
+      <c r="E81" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G81" t="s">
+        <v>303</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I81">
         <v>4</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5551,17 +6426,26 @@
       <c r="D82" t="s">
         <v>442</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H82">
+      <c r="E82" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G82" t="s">
+        <v>304</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I82">
         <v>4</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5574,17 +6458,26 @@
       <c r="D83" t="s">
         <v>442</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H83">
+      <c r="E83" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G83" t="s">
+        <v>305</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I83">
         <v>4</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5597,17 +6490,26 @@
       <c r="D84" t="s">
         <v>442</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H84">
+      <c r="E84" t="s">
+        <v>645</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" t="s">
+        <v>306</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I84">
         <v>16</v>
       </c>
-      <c r="I84" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J84" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5620,17 +6522,23 @@
       <c r="D85" t="s">
         <v>442</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H85">
+      <c r="E85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G85" t="s">
+        <v>307</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I85">
         <v>14</v>
       </c>
-      <c r="I85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5643,17 +6551,23 @@
       <c r="D86" t="s">
         <v>442</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H86">
+      <c r="E86" t="s">
+        <v>645</v>
+      </c>
+      <c r="G86" t="s">
+        <v>308</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I86">
         <v>100</v>
       </c>
-      <c r="I86" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J86" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5666,17 +6580,23 @@
       <c r="D87" t="s">
         <v>442</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H87">
+      <c r="E87" t="s">
+        <v>645</v>
+      </c>
+      <c r="G87" t="s">
+        <v>309</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I87">
         <v>50</v>
       </c>
-      <c r="I87" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J87" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5689,17 +6609,23 @@
       <c r="D88" t="s">
         <v>442</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H88">
+      <c r="E88" t="s">
+        <v>645</v>
+      </c>
+      <c r="G88" t="s">
+        <v>310</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I88">
         <v>3</v>
       </c>
-      <c r="I88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5712,17 +6638,26 @@
       <c r="D89" t="s">
         <v>442</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H89">
+      <c r="E89" t="s">
+        <v>645</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G89" t="s">
+        <v>311</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I89">
         <v>6</v>
       </c>
-      <c r="I89" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5735,17 +6670,26 @@
       <c r="D90" t="s">
         <v>442</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H90">
+      <c r="E90" t="s">
+        <v>645</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G90" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J90" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5758,17 +6702,23 @@
       <c r="D91" t="s">
         <v>442</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H91">
+      <c r="E91" t="s">
+        <v>645</v>
+      </c>
+      <c r="G91" t="s">
+        <v>313</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J91" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5781,17 +6731,26 @@
       <c r="D92" t="s">
         <v>442</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H92">
+      <c r="E92" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G92" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I92">
         <v>8</v>
       </c>
-      <c r="I92" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5804,17 +6763,26 @@
       <c r="D93" t="s">
         <v>442</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H93">
+      <c r="E93" t="s">
+        <v>645</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G93" t="s">
+        <v>315</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I93">
         <v>3</v>
       </c>
-      <c r="I93" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J93" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5827,17 +6795,26 @@
       <c r="D94" t="s">
         <v>442</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H94">
+      <c r="E94" t="s">
+        <v>443</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G94" t="s">
+        <v>316</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I94">
         <v>8</v>
       </c>
-      <c r="I94" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5850,17 +6827,26 @@
       <c r="D95" t="s">
         <v>442</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H95">
+      <c r="E95" t="s">
+        <v>645</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G95" t="s">
+        <v>317</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I95">
         <v>3</v>
       </c>
-      <c r="I95" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5873,17 +6859,26 @@
       <c r="D96" t="s">
         <v>442</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H96">
+      <c r="E96" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G96" t="s">
+        <v>318</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I96">
         <v>5</v>
       </c>
-      <c r="I96" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J96" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5896,17 +6891,26 @@
       <c r="D97" t="s">
         <v>442</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H97">
+      <c r="E97" t="s">
+        <v>443</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G97" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I97">
         <v>5</v>
       </c>
-      <c r="I97" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J97" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5919,17 +6923,26 @@
       <c r="D98" t="s">
         <v>442</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H98">
+      <c r="E98" t="s">
+        <v>645</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G98" t="s">
+        <v>320</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I98">
         <v>3</v>
       </c>
-      <c r="I98" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5942,17 +6955,26 @@
       <c r="D99" t="s">
         <v>442</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H99">
+      <c r="E99" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G99" t="s">
+        <v>321</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I99">
         <v>7</v>
       </c>
-      <c r="I99" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J99" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5965,17 +6987,26 @@
       <c r="D100" t="s">
         <v>442</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H100">
+      <c r="E100" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G100" t="s">
+        <v>322</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I100">
         <v>7</v>
       </c>
-      <c r="I100" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J100" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5988,17 +7019,26 @@
       <c r="D101" t="s">
         <v>442</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H101">
+      <c r="E101" t="s">
+        <v>443</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I101">
         <v>2</v>
       </c>
-      <c r="I101" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J101" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6011,17 +7051,26 @@
       <c r="D102" t="s">
         <v>442</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H102">
+      <c r="E102" t="s">
+        <v>443</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G102" t="s">
+        <v>324</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I102">
         <v>3</v>
       </c>
-      <c r="I102" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J102" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6034,17 +7083,26 @@
       <c r="D103" t="s">
         <v>442</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H103">
+      <c r="E103" t="s">
+        <v>443</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G103" t="s">
+        <v>325</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I103">
         <v>4</v>
       </c>
-      <c r="I103" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J103" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6057,17 +7115,26 @@
       <c r="D104" t="s">
         <v>442</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H104">
+      <c r="E104" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G104" t="s">
+        <v>326</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I104">
         <v>4</v>
       </c>
-      <c r="I104" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J104" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6080,17 +7147,26 @@
       <c r="D105" t="s">
         <v>442</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H105">
+      <c r="E105" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G105" t="s">
+        <v>327</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I105">
         <v>4</v>
       </c>
-      <c r="I105" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J105" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6103,17 +7179,26 @@
       <c r="D106" t="s">
         <v>442</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H106">
+      <c r="E106" t="s">
+        <v>443</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G106" t="s">
+        <v>328</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I106">
         <v>7</v>
       </c>
-      <c r="I106" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J106" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6126,17 +7211,26 @@
       <c r="D107" t="s">
         <v>442</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H107">
+      <c r="E107" t="s">
+        <v>443</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G107" t="s">
+        <v>329</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I107">
         <v>7</v>
       </c>
-      <c r="I107" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J107" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6149,17 +7243,26 @@
       <c r="D108" t="s">
         <v>442</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H108">
+      <c r="E108" t="s">
+        <v>645</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G108" t="s">
+        <v>330</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I108">
         <v>3</v>
       </c>
-      <c r="I108" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J108" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6172,17 +7275,26 @@
       <c r="D109" t="s">
         <v>442</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H109">
+      <c r="E109" t="s">
+        <v>443</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I109">
         <v>4</v>
       </c>
-      <c r="I109" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J109" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6195,17 +7307,26 @@
       <c r="D110" t="s">
         <v>442</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H110">
+      <c r="E110" t="s">
+        <v>443</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G110" t="s">
+        <v>332</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I110">
         <v>4</v>
       </c>
-      <c r="I110" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J110" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6218,17 +7339,26 @@
       <c r="D111" t="s">
         <v>442</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H111">
+      <c r="E111" t="s">
+        <v>443</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G111" t="s">
+        <v>333</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I111">
         <v>4</v>
       </c>
-      <c r="I111" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6241,17 +7371,26 @@
       <c r="D112" t="s">
         <v>442</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H112">
+      <c r="E112" t="s">
+        <v>443</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G112" t="s">
+        <v>334</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I112">
         <v>4</v>
       </c>
-      <c r="I112" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J112" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6264,17 +7403,26 @@
       <c r="D113" t="s">
         <v>442</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H113">
+      <c r="E113" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G113" t="s">
+        <v>335</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I113">
         <v>4</v>
       </c>
-      <c r="I113" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J113" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6287,17 +7435,26 @@
       <c r="D114" t="s">
         <v>442</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H114">
+      <c r="E114" t="s">
+        <v>443</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G114" t="s">
+        <v>336</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I114">
         <v>4</v>
       </c>
-      <c r="I114" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J114" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6310,17 +7467,26 @@
       <c r="D115" t="s">
         <v>442</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H115">
+      <c r="E115" t="s">
+        <v>645</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G115" t="s">
+        <v>337</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I115">
         <v>3</v>
       </c>
-      <c r="I115" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J115" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6333,17 +7499,26 @@
       <c r="D116" t="s">
         <v>442</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H116">
+      <c r="E116" t="s">
+        <v>443</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G116" t="s">
+        <v>338</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I116">
         <v>3</v>
       </c>
-      <c r="I116" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J116" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6356,17 +7531,23 @@
       <c r="D117" t="s">
         <v>442</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H117">
+      <c r="E117" t="s">
+        <v>645</v>
+      </c>
+      <c r="G117" t="s">
+        <v>339</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I117">
         <v>3</v>
       </c>
-      <c r="I117" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J117" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6379,17 +7560,26 @@
       <c r="D118" t="s">
         <v>442</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H118">
+      <c r="E118" t="s">
+        <v>645</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G118" t="s">
+        <v>340</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I118">
         <v>1</v>
       </c>
-      <c r="I118" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J118" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6402,17 +7592,26 @@
       <c r="D119" t="s">
         <v>442</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H119">
+      <c r="E119" t="s">
+        <v>645</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G119" t="s">
+        <v>341</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J119" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6425,17 +7624,26 @@
       <c r="D120" t="s">
         <v>442</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H120">
+      <c r="E120" t="s">
+        <v>645</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G120" t="s">
+        <v>342</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I120">
         <v>8</v>
       </c>
-      <c r="I120" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J120" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6448,17 +7656,26 @@
       <c r="D121" t="s">
         <v>442</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H121">
+      <c r="E121" t="s">
+        <v>645</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G121" t="s">
+        <v>343</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I121">
         <v>8</v>
       </c>
-      <c r="I121" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J121" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6471,17 +7688,26 @@
       <c r="D122" t="s">
         <v>442</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H122">
+      <c r="E122" t="s">
+        <v>645</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G122" t="s">
+        <v>344</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I122">
         <v>10</v>
       </c>
-      <c r="I122" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J122" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6494,17 +7720,26 @@
       <c r="D123" t="s">
         <v>442</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H123">
+      <c r="E123" t="s">
+        <v>645</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G123" t="s">
+        <v>345</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I123">
         <v>5</v>
       </c>
-      <c r="I123" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J123" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6517,17 +7752,26 @@
       <c r="D124" t="s">
         <v>442</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H124">
+      <c r="E124" t="s">
+        <v>645</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G124" t="s">
+        <v>346</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I124">
         <v>8</v>
       </c>
-      <c r="I124" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J124" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6540,17 +7784,26 @@
       <c r="D125" t="s">
         <v>442</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H125">
+      <c r="E125" t="s">
+        <v>443</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G125" t="s">
+        <v>347</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I125">
         <v>7</v>
       </c>
-      <c r="I125" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J125" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6563,17 +7816,26 @@
       <c r="D126" t="s">
         <v>442</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H126">
+      <c r="E126" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G126" t="s">
+        <v>348</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I126">
         <v>7</v>
       </c>
-      <c r="I126" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J126" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6586,17 +7848,26 @@
       <c r="D127" t="s">
         <v>442</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H127">
+      <c r="E127" t="s">
+        <v>645</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G127" t="s">
+        <v>349</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J127" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6609,17 +7880,26 @@
       <c r="D128" t="s">
         <v>442</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H128">
+      <c r="E128" t="s">
+        <v>443</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G128" t="s">
+        <v>350</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I128">
         <v>9</v>
       </c>
-      <c r="I128" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J128" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6632,17 +7912,26 @@
       <c r="D129" t="s">
         <v>442</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H129">
+      <c r="E129" t="s">
+        <v>645</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G129" t="s">
+        <v>351</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I129">
         <v>1</v>
       </c>
-      <c r="I129" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J129" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6655,17 +7944,26 @@
       <c r="D130" t="s">
         <v>442</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H130">
+      <c r="E130" t="s">
+        <v>645</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G130" t="s">
+        <v>352</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I130">
         <v>1</v>
       </c>
-      <c r="I130" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J130" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6678,17 +7976,26 @@
       <c r="D131" t="s">
         <v>442</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H131">
+      <c r="E131" t="s">
+        <v>645</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G131" t="s">
+        <v>353</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I131">
         <v>1</v>
       </c>
-      <c r="I131" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J131" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6701,17 +8008,26 @@
       <c r="D132" t="s">
         <v>442</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H132">
+      <c r="E132" t="s">
+        <v>443</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G132" t="s">
+        <v>354</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I132">
         <v>3</v>
       </c>
-      <c r="I132" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J132" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6724,17 +8040,26 @@
       <c r="D133" t="s">
         <v>442</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H133">
+      <c r="E133" t="s">
+        <v>443</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G133" t="s">
+        <v>355</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I133">
         <v>4</v>
       </c>
-      <c r="I133" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J133" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6747,17 +8072,23 @@
       <c r="D134" t="s">
         <v>442</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H134">
+      <c r="E134" t="s">
+        <v>645</v>
+      </c>
+      <c r="G134" t="s">
+        <v>356</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I134">
         <v>60</v>
       </c>
-      <c r="I134" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J134" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6770,17 +8101,26 @@
       <c r="D135" t="s">
         <v>442</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H135">
+      <c r="E135" t="s">
+        <v>443</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G135" t="s">
+        <v>357</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I135">
         <v>7</v>
       </c>
-      <c r="I135" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J135" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6793,17 +8133,26 @@
       <c r="D136" t="s">
         <v>442</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H136">
+      <c r="E136" t="s">
+        <v>443</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G136" t="s">
+        <v>358</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I136">
         <v>7</v>
       </c>
-      <c r="I136" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6816,17 +8165,26 @@
       <c r="D137" t="s">
         <v>442</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H137">
+      <c r="E137" t="s">
+        <v>443</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G137" t="s">
+        <v>359</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I137">
         <v>7</v>
       </c>
-      <c r="I137" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J137" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6839,17 +8197,26 @@
       <c r="D138" t="s">
         <v>442</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H138">
+      <c r="E138" t="s">
+        <v>443</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G138" t="s">
+        <v>360</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I138">
         <v>7</v>
       </c>
-      <c r="I138" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J138" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6862,17 +8229,26 @@
       <c r="D139" t="s">
         <v>442</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H139">
+      <c r="E139" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G139" t="s">
+        <v>361</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I139">
         <v>7</v>
       </c>
-      <c r="I139" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J139" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6885,17 +8261,26 @@
       <c r="D140" t="s">
         <v>442</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H140">
+      <c r="E140" t="s">
+        <v>443</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G140" t="s">
+        <v>362</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I140">
         <v>7</v>
       </c>
-      <c r="I140" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J140" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6908,17 +8293,26 @@
       <c r="D141" t="s">
         <v>442</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H141">
+      <c r="E141" t="s">
+        <v>443</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G141" t="s">
+        <v>363</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I141">
         <v>4</v>
       </c>
-      <c r="I141" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J141" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6931,17 +8325,26 @@
       <c r="D142" t="s">
         <v>442</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H142">
+      <c r="E142" t="s">
+        <v>443</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G142" t="s">
+        <v>364</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I142">
         <v>7</v>
       </c>
-      <c r="I142" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J142" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6954,17 +8357,26 @@
       <c r="D143" t="s">
         <v>442</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H143">
+      <c r="E143" t="s">
+        <v>443</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G143" t="s">
+        <v>365</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I143">
         <v>7</v>
       </c>
-      <c r="I143" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J143" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6977,17 +8389,26 @@
       <c r="D144" t="s">
         <v>442</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H144">
+      <c r="E144" t="s">
+        <v>443</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G144" t="s">
+        <v>366</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I144">
         <v>7</v>
       </c>
-      <c r="I144" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7000,17 +8421,26 @@
       <c r="D145" t="s">
         <v>442</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H145">
+      <c r="E145" t="s">
+        <v>443</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G145" t="s">
+        <v>367</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I145">
         <v>7</v>
       </c>
-      <c r="I145" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J145" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7023,17 +8453,26 @@
       <c r="D146" t="s">
         <v>442</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="H146">
+      <c r="E146" t="s">
+        <v>443</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G146" t="s">
+        <v>368</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I146">
         <v>7</v>
       </c>
-      <c r="I146" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J146" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7046,17 +8485,26 @@
       <c r="D147" t="s">
         <v>442</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="H147">
+      <c r="E147" t="s">
+        <v>443</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G147" t="s">
+        <v>369</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I147">
         <v>6</v>
       </c>
-      <c r="I147" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J147" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7069,17 +8517,26 @@
       <c r="D148" t="s">
         <v>442</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H148">
+      <c r="E148" t="s">
+        <v>443</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G148" t="s">
+        <v>370</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I148">
         <v>6</v>
       </c>
-      <c r="I148" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7092,17 +8549,26 @@
       <c r="D149" t="s">
         <v>442</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H149">
+      <c r="E149" t="s">
+        <v>443</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G149" t="s">
+        <v>371</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I149">
         <v>5</v>
       </c>
-      <c r="I149" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7115,17 +8581,26 @@
       <c r="D150" t="s">
         <v>442</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H150">
+      <c r="E150" t="s">
+        <v>443</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G150" t="s">
+        <v>372</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I150">
         <v>6</v>
       </c>
-      <c r="I150" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J150" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7138,17 +8613,26 @@
       <c r="D151" t="s">
         <v>442</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H151">
+      <c r="E151" t="s">
+        <v>443</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G151" t="s">
+        <v>373</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I151">
         <v>6</v>
       </c>
-      <c r="I151" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J151" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7161,17 +8645,26 @@
       <c r="D152" t="s">
         <v>442</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H152">
+      <c r="E152" t="s">
+        <v>443</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G152" t="s">
+        <v>374</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I152">
         <v>7</v>
       </c>
-      <c r="I152" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J152" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7184,17 +8677,26 @@
       <c r="D153" t="s">
         <v>442</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H153">
+      <c r="E153" t="s">
+        <v>443</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G153" t="s">
+        <v>375</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I153">
         <v>7</v>
       </c>
-      <c r="I153" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J153" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7207,17 +8709,26 @@
       <c r="D154" t="s">
         <v>442</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="H154">
+      <c r="E154" t="s">
+        <v>443</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G154" t="s">
+        <v>376</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I154">
         <v>7</v>
       </c>
-      <c r="I154" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7230,17 +8741,26 @@
       <c r="D155" t="s">
         <v>442</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H155">
+      <c r="E155" t="s">
+        <v>443</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G155" t="s">
+        <v>377</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I155">
         <v>8</v>
       </c>
-      <c r="I155" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J155" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7253,17 +8773,26 @@
       <c r="D156" t="s">
         <v>442</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H156">
+      <c r="E156" t="s">
+        <v>443</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G156" t="s">
+        <v>378</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I156">
         <v>11</v>
       </c>
-      <c r="I156" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J156" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7276,17 +8805,26 @@
       <c r="D157" t="s">
         <v>442</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H157">
+      <c r="E157" t="s">
+        <v>645</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G157" t="s">
+        <v>379</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J157" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7299,17 +8837,26 @@
       <c r="D158" t="s">
         <v>442</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H158">
+      <c r="E158" t="s">
+        <v>443</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G158" t="s">
+        <v>380</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I158">
         <v>3</v>
       </c>
-      <c r="I158" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J158" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7322,17 +8869,26 @@
       <c r="D159" t="s">
         <v>442</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H159">
+      <c r="E159" t="s">
+        <v>645</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G159" t="s">
+        <v>381</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J159" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7345,17 +8901,26 @@
       <c r="D160" t="s">
         <v>442</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H160">
+      <c r="E160" t="s">
+        <v>645</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G160" t="s">
+        <v>382</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I160">
         <v>1</v>
       </c>
-      <c r="I160" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J160" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7368,17 +8933,26 @@
       <c r="D161" t="s">
         <v>442</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H161">
+      <c r="E161" t="s">
+        <v>443</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G161" t="s">
+        <v>383</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="I161" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J161" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7391,17 +8965,26 @@
       <c r="D162" t="s">
         <v>442</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H162">
+      <c r="E162" t="s">
+        <v>443</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G162" t="s">
+        <v>384</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I162">
         <v>3</v>
       </c>
-      <c r="I162" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J162" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7414,17 +8997,26 @@
       <c r="D163" t="s">
         <v>442</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H163">
+      <c r="E163" t="s">
+        <v>443</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G163" t="s">
+        <v>385</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I163">
         <v>5</v>
       </c>
-      <c r="I163" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="J163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7437,17 +9029,26 @@
       <c r="D164" t="s">
         <v>442</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H164">
+      <c r="E164" t="s">
+        <v>645</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G164" t="s">
+        <v>386</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J164" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7460,17 +9061,26 @@
       <c r="D165" t="s">
         <v>442</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H165">
+      <c r="E165" t="s">
+        <v>645</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G165" t="s">
+        <v>387</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I165">
         <v>3</v>
       </c>
-      <c r="I165" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="J165" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7483,17 +9093,26 @@
       <c r="D166" t="s">
         <v>442</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H166">
+      <c r="E166" t="s">
+        <v>645</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G166" t="s">
+        <v>388</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J166" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7506,17 +9125,26 @@
       <c r="D167" t="s">
         <v>442</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H167">
+      <c r="E167" t="s">
+        <v>645</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G167" t="s">
+        <v>389</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I167">
         <v>8</v>
       </c>
-      <c r="I167" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J167" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7529,17 +9157,23 @@
       <c r="D168" t="s">
         <v>442</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H168">
+      <c r="E168" t="s">
+        <v>645</v>
+      </c>
+      <c r="G168" t="s">
+        <v>390</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I168">
         <v>4</v>
       </c>
-      <c r="I168" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J168" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7552,17 +9186,23 @@
       <c r="D169" t="s">
         <v>442</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H169">
+      <c r="E169" t="s">
+        <v>645</v>
+      </c>
+      <c r="G169" t="s">
+        <v>391</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I169">
         <v>3</v>
       </c>
-      <c r="I169" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J169" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7575,17 +9215,23 @@
       <c r="D170" t="s">
         <v>442</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="H170">
+      <c r="E170" t="s">
+        <v>443</v>
+      </c>
+      <c r="G170" t="s">
+        <v>392</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I170">
         <v>4</v>
       </c>
-      <c r="I170" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J170" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7598,17 +9244,23 @@
       <c r="D171" t="s">
         <v>442</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H171">
+      <c r="E171" t="s">
+        <v>443</v>
+      </c>
+      <c r="G171" t="s">
+        <v>393</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I171">
         <v>4</v>
       </c>
-      <c r="I171" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J171" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7621,17 +9273,23 @@
       <c r="D172" t="s">
         <v>442</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H172">
+      <c r="E172" t="s">
+        <v>443</v>
+      </c>
+      <c r="G172" t="s">
+        <v>394</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I172">
         <v>4</v>
       </c>
-      <c r="I172" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J172" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7644,17 +9302,23 @@
       <c r="D173" t="s">
         <v>442</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H173">
+      <c r="E173" t="s">
+        <v>443</v>
+      </c>
+      <c r="G173" t="s">
+        <v>395</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I173">
         <v>4</v>
       </c>
-      <c r="I173" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J173" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7667,17 +9331,23 @@
       <c r="D174" t="s">
         <v>442</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H174">
+      <c r="E174" t="s">
+        <v>443</v>
+      </c>
+      <c r="G174" t="s">
+        <v>396</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I174">
         <v>4</v>
       </c>
-      <c r="I174" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J174" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7690,17 +9360,23 @@
       <c r="D175" t="s">
         <v>442</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H175">
+      <c r="E175" t="s">
+        <v>443</v>
+      </c>
+      <c r="G175" t="s">
+        <v>397</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I175">
         <v>4</v>
       </c>
-      <c r="I175" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J175" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7713,17 +9389,23 @@
       <c r="D176" t="s">
         <v>442</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H176">
+      <c r="E176" t="s">
+        <v>443</v>
+      </c>
+      <c r="G176" t="s">
+        <v>398</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I176">
         <v>5</v>
       </c>
-      <c r="I176" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J176" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7736,17 +9418,23 @@
       <c r="D177" t="s">
         <v>442</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H177">
+      <c r="E177" t="s">
+        <v>443</v>
+      </c>
+      <c r="G177" t="s">
+        <v>399</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I177">
         <v>5</v>
       </c>
-      <c r="I177" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J177" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7759,17 +9447,23 @@
       <c r="D178" t="s">
         <v>442</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H178">
+      <c r="E178" t="s">
+        <v>443</v>
+      </c>
+      <c r="G178" t="s">
+        <v>400</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I178">
         <v>5</v>
       </c>
-      <c r="I178" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J178" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7782,17 +9476,23 @@
       <c r="D179" t="s">
         <v>442</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H179">
+      <c r="E179" t="s">
+        <v>443</v>
+      </c>
+      <c r="G179" t="s">
+        <v>401</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I179">
         <v>5</v>
       </c>
-      <c r="I179" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J179" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7805,17 +9505,26 @@
       <c r="D180" t="s">
         <v>442</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H180">
+      <c r="E180" t="s">
+        <v>645</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G180" t="s">
+        <v>402</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I180">
         <v>8</v>
       </c>
-      <c r="I180" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J180" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7828,14 +9537,23 @@
       <c r="D181" t="s">
         <v>442</v>
       </c>
-      <c r="H181">
+      <c r="E181" t="s">
+        <v>645</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G181" t="s">
+        <v>403</v>
+      </c>
+      <c r="I181">
         <v>6</v>
       </c>
-      <c r="I181" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J181" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7848,17 +9566,26 @@
       <c r="D182" t="s">
         <v>442</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="H182">
+      <c r="E182" t="s">
+        <v>645</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G182" t="s">
+        <v>404</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J182" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7871,17 +9598,23 @@
       <c r="D183" t="s">
         <v>442</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H183">
+      <c r="E183" t="s">
+        <v>645</v>
+      </c>
+      <c r="G183" t="s">
+        <v>405</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I183">
         <v>1</v>
       </c>
-      <c r="I183" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J183" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7894,17 +9627,26 @@
       <c r="D184" t="s">
         <v>442</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H184">
+      <c r="E184" t="s">
+        <v>645</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G184" t="s">
+        <v>406</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I184">
         <v>765</v>
       </c>
-      <c r="I184" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J184" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7917,17 +9659,23 @@
       <c r="D185" t="s">
         <v>442</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H185">
+      <c r="E185" t="s">
+        <v>645</v>
+      </c>
+      <c r="G185" t="s">
+        <v>407</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I185">
         <v>765</v>
       </c>
-      <c r="I185" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J185" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7940,17 +9688,23 @@
       <c r="D186" t="s">
         <v>442</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H186">
+      <c r="E186" t="s">
+        <v>645</v>
+      </c>
+      <c r="G186" t="s">
+        <v>408</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I186">
         <v>765</v>
       </c>
-      <c r="I186" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J186" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7963,17 +9717,23 @@
       <c r="D187" t="s">
         <v>442</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H187">
+      <c r="E187" t="s">
+        <v>645</v>
+      </c>
+      <c r="G187" t="s">
+        <v>409</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I187">
         <v>765</v>
       </c>
-      <c r="I187" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J187" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7986,17 +9746,23 @@
       <c r="D188" t="s">
         <v>442</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H188">
+      <c r="E188" t="s">
+        <v>645</v>
+      </c>
+      <c r="G188" t="s">
+        <v>410</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I188">
         <v>765</v>
       </c>
-      <c r="I188" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J188" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8009,17 +9775,23 @@
       <c r="D189" t="s">
         <v>442</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H189">
+      <c r="E189" t="s">
+        <v>645</v>
+      </c>
+      <c r="G189" t="s">
+        <v>411</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I189">
         <v>765</v>
       </c>
-      <c r="I189" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J189" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8032,17 +9804,23 @@
       <c r="D190" t="s">
         <v>442</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H190">
+      <c r="E190" t="s">
+        <v>645</v>
+      </c>
+      <c r="G190" t="s">
+        <v>412</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I190">
         <v>765</v>
       </c>
-      <c r="I190" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J190" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8055,17 +9833,23 @@
       <c r="D191" t="s">
         <v>442</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H191">
+      <c r="E191" t="s">
+        <v>645</v>
+      </c>
+      <c r="G191" t="s">
+        <v>413</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I191">
         <v>765</v>
       </c>
-      <c r="I191" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J191" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8078,17 +9862,23 @@
       <c r="D192" t="s">
         <v>442</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H192">
+      <c r="E192" t="s">
+        <v>645</v>
+      </c>
+      <c r="G192" t="s">
+        <v>414</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I192">
         <v>765</v>
       </c>
-      <c r="I192" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J192" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8101,17 +9891,23 @@
       <c r="D193" t="s">
         <v>442</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H193">
+      <c r="E193" t="s">
+        <v>645</v>
+      </c>
+      <c r="G193" t="s">
+        <v>415</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I193">
         <v>765</v>
       </c>
-      <c r="I193" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J193" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8124,17 +9920,23 @@
       <c r="D194" t="s">
         <v>442</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H194">
+      <c r="E194" t="s">
+        <v>645</v>
+      </c>
+      <c r="G194" t="s">
+        <v>416</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I194">
         <v>765</v>
       </c>
-      <c r="I194" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J194" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8147,17 +9949,23 @@
       <c r="D195" t="s">
         <v>442</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H195">
+      <c r="E195" t="s">
+        <v>645</v>
+      </c>
+      <c r="G195" t="s">
+        <v>417</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I195">
         <v>765</v>
       </c>
-      <c r="I195" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J195" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8170,17 +9978,23 @@
       <c r="D196" t="s">
         <v>442</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H196">
+      <c r="E196" t="s">
+        <v>645</v>
+      </c>
+      <c r="G196" t="s">
+        <v>418</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I196">
         <v>765</v>
       </c>
-      <c r="I196" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J196" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8193,17 +10007,23 @@
       <c r="D197" t="s">
         <v>442</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H197">
+      <c r="E197" t="s">
+        <v>645</v>
+      </c>
+      <c r="G197" t="s">
+        <v>419</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I197">
         <v>765</v>
       </c>
-      <c r="I197" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J197" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8216,17 +10036,23 @@
       <c r="D198" t="s">
         <v>442</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H198">
+      <c r="E198" t="s">
+        <v>645</v>
+      </c>
+      <c r="G198" t="s">
+        <v>420</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I198">
         <v>4</v>
       </c>
-      <c r="I198" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J198" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8239,17 +10065,26 @@
       <c r="D199" t="s">
         <v>442</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H199">
+      <c r="E199" t="s">
+        <v>645</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G199" t="s">
+        <v>421</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I199">
         <v>1</v>
       </c>
-      <c r="I199" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J199" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8262,17 +10097,26 @@
       <c r="D200" t="s">
         <v>442</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H200">
+      <c r="E200" t="s">
+        <v>443</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G200" t="s">
+        <v>422</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I200">
         <v>7</v>
       </c>
-      <c r="I200" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J200" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8285,17 +10129,26 @@
       <c r="D201" t="s">
         <v>442</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H201">
+      <c r="E201" t="s">
+        <v>645</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G201" t="s">
+        <v>423</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I201">
         <v>3</v>
       </c>
-      <c r="I201" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8308,17 +10161,26 @@
       <c r="D202" t="s">
         <v>442</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="H202">
+      <c r="E202" t="s">
+        <v>443</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G202" t="s">
+        <v>424</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I202">
         <v>4</v>
       </c>
-      <c r="I202" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8331,17 +10193,26 @@
       <c r="D203" t="s">
         <v>442</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="H203">
+      <c r="E203" t="s">
+        <v>443</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G203" t="s">
+        <v>425</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I203">
         <v>4</v>
       </c>
-      <c r="I203" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J203" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8354,17 +10225,26 @@
       <c r="D204" t="s">
         <v>442</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H204">
+      <c r="E204" t="s">
+        <v>443</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G204" t="s">
+        <v>426</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I204">
         <v>4</v>
       </c>
-      <c r="I204" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J204" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8377,17 +10257,23 @@
       <c r="D205" t="s">
         <v>442</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H205">
+      <c r="E205" t="s">
+        <v>443</v>
+      </c>
+      <c r="G205" t="s">
+        <v>427</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I205">
         <v>4</v>
       </c>
-      <c r="I205" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J205" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8400,17 +10286,23 @@
       <c r="D206" t="s">
         <v>442</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H206">
+      <c r="E206" t="s">
+        <v>443</v>
+      </c>
+      <c r="G206" t="s">
+        <v>428</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I206">
         <v>4</v>
       </c>
-      <c r="I206" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="J206" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8423,17 +10315,23 @@
       <c r="D207" t="s">
         <v>442</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H207">
+      <c r="E207" t="s">
+        <v>443</v>
+      </c>
+      <c r="G207" t="s">
+        <v>429</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I207">
         <v>4</v>
       </c>
-      <c r="I207" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J207" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8446,17 +10344,23 @@
       <c r="D208" t="s">
         <v>442</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H208">
+      <c r="E208" t="s">
+        <v>443</v>
+      </c>
+      <c r="G208" t="s">
+        <v>430</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I208">
         <v>4</v>
       </c>
-      <c r="I208" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="J208" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8469,17 +10373,23 @@
       <c r="D209" t="s">
         <v>442</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H209">
+      <c r="E209" t="s">
+        <v>443</v>
+      </c>
+      <c r="G209" t="s">
+        <v>431</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I209">
         <v>4</v>
       </c>
-      <c r="I209" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="J209" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8492,17 +10402,26 @@
       <c r="D210" t="s">
         <v>442</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H210">
+      <c r="E210" t="s">
+        <v>443</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G210" t="s">
+        <v>432</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I210">
         <v>6</v>
       </c>
-      <c r="I210" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J210" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8515,17 +10434,26 @@
       <c r="D211" t="s">
         <v>442</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H211">
+      <c r="E211" t="s">
+        <v>645</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G211" t="s">
+        <v>433</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I211">
         <v>3</v>
       </c>
-      <c r="I211" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J211" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8538,17 +10466,23 @@
       <c r="D212" t="s">
         <v>442</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H212">
+      <c r="E212" t="s">
+        <v>443</v>
+      </c>
+      <c r="G212" t="s">
+        <v>434</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I212">
         <v>2</v>
       </c>
-      <c r="I212" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J212" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8561,17 +10495,23 @@
       <c r="D213" t="s">
         <v>442</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H213">
+      <c r="E213" t="s">
+        <v>645</v>
+      </c>
+      <c r="G213" t="s">
+        <v>435</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I213">
         <v>6</v>
       </c>
-      <c r="I213" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="150" x14ac:dyDescent="0.4">
+      <c r="J213" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="150" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8584,17 +10524,23 @@
       <c r="D214" t="s">
         <v>442</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H214">
+      <c r="E214" t="s">
+        <v>645</v>
+      </c>
+      <c r="G214" t="s">
+        <v>436</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I214">
         <v>10</v>
       </c>
-      <c r="I214" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J214" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8607,17 +10553,23 @@
       <c r="D215" t="s">
         <v>442</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H215">
+      <c r="E215" t="s">
+        <v>645</v>
+      </c>
+      <c r="G215" t="s">
+        <v>437</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I215">
         <v>3</v>
       </c>
-      <c r="I215" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J215" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8630,17 +10582,26 @@
       <c r="D216" t="s">
         <v>442</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H216">
+      <c r="E216" t="s">
+        <v>645</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G216" t="s">
+        <v>438</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I216">
         <v>1</v>
       </c>
-      <c r="I216" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J216" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8653,17 +10614,26 @@
       <c r="D217" t="s">
         <v>442</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="H217">
+      <c r="E217" t="s">
+        <v>646</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G217" t="s">
+        <v>439</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I217">
         <v>1</v>
       </c>
-      <c r="I217" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J217" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8674,16 +10644,25 @@
         <v>440</v>
       </c>
       <c r="D218" t="s">
-        <v>449</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I218" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>442</v>
+      </c>
+      <c r="E218" t="s">
+        <v>646</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G218" t="s">
+        <v>440</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J218" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8696,11 +10675,116 @@
       <c r="D219" t="s">
         <v>442</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="I219" t="s">
-        <v>442</v>
+      <c r="E219" t="s">
+        <v>646</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G219" t="s">
+        <v>441</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J219" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBB0B56-DF22-40C1-A3CF-CDA8EDD52D40}">
+  <dimension ref="B1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD31C811-D3C0-4877-8603-3368CB20FFFC}">
+  <dimension ref="B1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
